--- a/MODRA_PLANNING/MODRA-Chemical-Ordering-09122025-Thanh.xlsx
+++ b/MODRA_PLANNING/MODRA-Chemical-Ordering-09122025-Thanh.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh.nt\Desktop\GitHub\MODRA_Project\MODRA_PLANNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B49C4AE0-F130-4BCB-B80C-6C15CC87D7BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D65BB15-C1D9-4542-BB35-966AE68FC517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="09122025" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -284,12 +285,68 @@
   <si>
     <t>SurePAGE™, Bis-Tris, 10x8, 10%, 12 wells</t>
   </si>
+  <si>
+    <t>#21003-1L</t>
+  </si>
+  <si>
+    <t>biotium</t>
+  </si>
+  <si>
+    <t>Cold-Active TEV Protease</t>
+  </si>
+  <si>
+    <t>P8118S</t>
+  </si>
+  <si>
+    <t>TEV Protease Kit</t>
+  </si>
+  <si>
+    <t>#29090-10000U</t>
+  </si>
+  <si>
+    <r>
+      <t>One-Step Blue</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Protein Gel Stain</t>
+    </r>
+  </si>
+  <si>
+    <t>InstantBlue™ stain, 1 L</t>
+  </si>
+  <si>
+    <t>HG73010</t>
+  </si>
+  <si>
+    <t>Gentaur</t>
+  </si>
+  <si>
+    <t>Number of product</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +382,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -354,6 +426,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,9 +1198,122 @@
       <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF3489A-3BF5-4664-BCD6-4FB5C68D4984}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>